--- a/CaseI.xlsx
+++ b/CaseI.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24334"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\论文\02 Trans Smart Grid\00 程序汇总\Hydraulic-Transients-and-Thermal-Dynamics-Embedded-Contingency-Analysis-of-Integrated-Electricity-and-Heating-Systems\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D0755A7-55CE-48D5-A3B0-3D0C799792D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="17680"/>
+    <workbookView xWindow="16995" yWindow="4455" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pipe" sheetId="5" r:id="rId1"/>
@@ -68,7 +74,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>Sup (</t>
     </r>
@@ -77,7 +83,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Segoe UI Symbol"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>℃</t>
     </r>
@@ -86,7 +92,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>)</t>
     </r>
@@ -97,7 +103,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>Ret (</t>
     </r>
@@ -106,7 +112,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Segoe UI Symbol"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>℃</t>
     </r>
@@ -115,7 +121,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>)</t>
     </r>
@@ -205,15 +211,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="5">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.0000_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="178" formatCode="0.0000_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -225,156 +227,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -394,39 +252,21 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Segoe UI Symbol"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -440,158 +280,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -599,259 +289,17 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="51">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -871,71 +319,27 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="51">
+  <cellStyles count="3">
+    <cellStyle name="差_bus" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="差_bus" xfId="49"/>
-    <cellStyle name="好_bus" xfId="50"/>
+    <cellStyle name="好_bus" xfId="2" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1193,25 +597,25 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="17.4166666666667" customWidth="1"/>
+    <col min="4" max="4" width="17.375" customWidth="1"/>
     <col min="6" max="6" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1236,7 +640,7 @@
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1256,12 +660,12 @@
         <v>0.2</v>
       </c>
       <c r="G2" s="4">
-        <v>0.0005</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1281,12 +685,12 @@
         <v>0.2</v>
       </c>
       <c r="G3" s="4">
-        <v>0.0005</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1306,12 +710,12 @@
         <v>0.2</v>
       </c>
       <c r="G4" s="4">
-        <v>0.0005</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="H4" s="4"/>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -1331,12 +735,12 @@
         <v>0.2</v>
       </c>
       <c r="G5" s="4">
-        <v>0.0005</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="5"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -1356,40 +760,40 @@
         <v>0.2</v>
       </c>
       <c r="G6" s="4">
-        <v>0.0005</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="5"/>
     </row>
-    <row r="7" spans="4:8">
+    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="4:8">
+    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="4:8">
+    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
     </row>
-    <row r="10" spans="4:8">
+    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="4:8">
+    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
@@ -1397,27 +801,26 @@
       <c r="H11" s="8"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.0833333333333" customWidth="1"/>
-    <col min="8" max="8" width="42.2333333333333" customWidth="1"/>
+    <col min="2" max="2" width="10.125" customWidth="1"/>
+    <col min="8" max="8" width="42.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" spans="1:8">
+    <row r="1" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>7</v>
       </c>
@@ -1438,12 +841,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
       <c r="B2" s="6">
-        <v>-33.6651</v>
+        <v>-33.665100000000002</v>
       </c>
       <c r="C2" s="5">
         <v>80</v>
@@ -1456,7 +859,7 @@
       </c>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -1474,7 +877,7 @@
       </c>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1492,12 +895,12 @@
       </c>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>4</v>
       </c>
       <c r="B5" s="7">
-        <v>12.3362748741448</v>
+        <v>12.336274874144801</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>13</v>
@@ -1510,7 +913,7 @@
       </c>
       <c r="F5" s="5"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -1528,7 +931,7 @@
       </c>
       <c r="F6" s="5"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -1546,85 +949,83 @@
       </c>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="2:6">
+    <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
     </row>
-    <row r="9" spans="2:6">
+    <row r="9" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
     </row>
-    <row r="10" spans="2:6">
+    <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
     </row>
-    <row r="11" spans="3:6">
+    <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
     </row>
-    <row r="12" spans="3:6">
+    <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>100</v>
       </c>
       <c r="B2" s="4"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2">
         <v>1</v>
       </c>
@@ -1665,7 +1066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:15" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>2</v>
       </c>
@@ -1706,7 +1107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>3</v>
       </c>
@@ -1748,7 +1149,7 @@
       </c>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:15" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>4</v>
       </c>
@@ -1789,7 +1190,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:15" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>5</v>
       </c>
@@ -1830,7 +1231,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:15" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>6</v>
       </c>
@@ -1871,7 +1272,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:15" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="E7" s="3"/>
@@ -1884,7 +1285,7 @@
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:15" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="E8" s="3"/>
@@ -1895,7 +1296,7 @@
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:15" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="E9" s="3"/>
@@ -1906,7 +1307,7 @@
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:15" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="E10" s="3"/>
@@ -1918,24 +1319,23 @@
       <c r="M10" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2">
         <v>1</v>
       </c>
@@ -1976,7 +1376,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -2017,7 +1417,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -2058,7 +1458,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -2099,7 +1499,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -2140,7 +1540,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -2181,7 +1581,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -2222,7 +1622,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="8" spans="6:13">
+    <row r="8" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
@@ -2232,7 +1632,7 @@
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
     </row>
-    <row r="9" spans="6:13">
+    <row r="9" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
@@ -2242,7 +1642,7 @@
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
     </row>
-    <row r="10" spans="6:13">
+    <row r="10" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
@@ -2253,23 +1653,22 @@
       <c r="M10" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:X4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H46" sqref="H45:H46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2">
         <v>1</v>
       </c>
@@ -2343,7 +1742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:24">
+    <row r="2" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>2</v>
       </c>
@@ -2417,7 +1816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>6</v>
       </c>
@@ -2491,7 +1890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="4:24">
+    <row r="4" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -2515,28 +1914,27 @@
       <c r="X4" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="3" width="9.58333333333333"/>
-    <col min="6" max="6" width="9.66666666666667"/>
-    <col min="9" max="9" width="10.6666666666667"/>
+    <col min="2" max="3" width="9.625"/>
+    <col min="6" max="6" width="9.625"/>
+    <col min="9" max="9" width="10.625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
@@ -2565,15 +1963,15 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>50</v>
       </c>
       <c r="B2" s="1">
-        <v>-0.003</v>
+        <v>-3.0000000000000001E-3</v>
       </c>
       <c r="C2" s="1">
-        <v>-1e-5</v>
+        <v>-1.0000000000000001E-5</v>
       </c>
       <c r="D2" s="1">
         <v>0.03</v>
@@ -2582,47 +1980,46 @@
         <v>0.187</v>
       </c>
       <c r="F2" s="1">
-        <v>-0.000327</v>
+        <v>-3.2699999999999998E-4</v>
       </c>
       <c r="G2" s="1">
         <v>0.183</v>
       </c>
       <c r="H2" s="1">
-        <v>0.0139</v>
+        <v>1.3899999999999999E-2</v>
       </c>
       <c r="I2" s="1">
-        <v>-5.82e-5</v>
+        <v>-5.8199999999999998E-5</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1.3</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>